--- a/documentation/matrix 1.xlsx
+++ b/documentation/matrix 1.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -183,16 +184,6 @@
   </si>
   <si>
     <t>Same result as for T15.</t>
-  </si>
-  <si>
-    <t>1. Repeat the steps in T11. 
-2. Complete 2 or 3 questions then click the "&lt;&lt;"in the top left of the Play Game screen to return to the Select Topic screen.
-3. Pick a different topic to go back to the Play Game screen.</t>
-  </si>
-  <si>
-    <t>1. Repeat the steps in T11.  
-2. Complete all the questions in the round with a mixture of right and wrong answers. Interchange between using the Enter key and clicking on Check Answer button to submit answers. 
-3. At the end of the round click on the End Round button.</t>
   </si>
   <si>
     <t>Repeat the steps in T19 then click on the "&lt;&lt;" on the top left of the End of Round screen.</t>
@@ -247,12 +238,6 @@
     <t>1. Enter a valid username. 
 2. Click on the "Play Game" button on the Login screen. 
 3. On the Select Topic screen click on the "&lt;&lt;" at the top left of the screen.</t>
-  </si>
-  <si>
-    <t>1. Enter a valid username and click on the "Play Game" button on Login screen.
-2. On the Select Topic screen, click on a topic button. 
-3. Complete a round of questions and proceed to the End of Round screen. 
-4. Click on the "End Game" button on the End of Round screen.</t>
   </si>
   <si>
     <t>Login - username</t>
@@ -365,11 +350,86 @@
     <t>Repeat T16 but press the "Enter" key when focus is on the input field instead of clicking on the "Check Answer" button.</t>
   </si>
   <si>
+    <t>Play Game - End Round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same expected results as for T11.  Also - 
+When the timer runs out, verify that the site acts as though "Check Answer" has been clicked :
+a. The appropriate feedback is given to the user - red background on the input field and "X" icon for an incorrect answer, green background to the input field and a tick symbol icon for a correct answer.  
+b. The total number of correct answers in the bottom right of the Play Game screen also increments if the answer is correct.  
+c. The anagram question on screen changes to show the answer. 
+d. The "Check Answer" changes to read "Continue" to allow the user to review the feedback.  
+e. After "Check Answer" is triggered on the 10th question the button changes to read "End Round" instead of "Continue".  </t>
+  </si>
+  <si>
+    <t>End of Round - go back</t>
+  </si>
+  <si>
+    <t>End of Round - Play Again</t>
+  </si>
+  <si>
+    <t>End of Round - End Game</t>
+  </si>
+  <si>
+    <t>Repeat the steps in T20.  Click on the "End Game" button.</t>
+  </si>
+  <si>
+    <t>Same results as for T19.
+When the "End Game" button is clicked verify :
+a. User is returned to the Login screen.  
+b. On the Login screen  the username no longer appears in the top right, just the user icon is visible in this position. 
+c. "&lt;&lt;" is not visible in top left of screen. 
+d. The input field is empty.  
+e. The username validation message is not visible.  
+f. Welcome message and Game title are visible. (Animation does not re-run).</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F3, F4, F2</t>
+  </si>
+  <si>
+    <t>F3, F4, F5, F6, F7, F8, F9, F10, F11, F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F3, F4, F5, F2 </t>
+  </si>
+  <si>
+    <t>F3, F4, F5, F6, F7, F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F3, F4, F5, F6, F7, F8, F9, F10  </t>
+  </si>
+  <si>
+    <t>F3, F4, F5, F6. F7, F8, F9, F10, F2</t>
+  </si>
+  <si>
+    <t>F3, F4, F5, F6. F7, F8, F9, F10, F11, F2</t>
+  </si>
+  <si>
+    <t>F1, F2, F3, F4, F5, F6, F7, F8, F9, F10, F11</t>
+  </si>
+  <si>
+    <t>1. Enter a valid username and click on the "Play Game" button on Login screen.
+2. On the Select Topic screen, click on a topic button. 
+3. Complete a round of anagrams and proceed to the End of Round screen. 
+4. Click on the "End Game" button on the End of Round screen.</t>
+  </si>
+  <si>
+    <t>1. Repeat the steps in T11. 
+2. Complete 2 or 3 anagrams then click the "&lt;&lt;"in the top left of the Play Game screen to return to the Select Topic screen.
+3. Pick a different topic to go back to the Play Game screen.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verify results are the same as for T11 expected results after step 1. of this test.  Also - 
 When the "Check Answer" button is clicked verify :
 a. The button text changes to "Continue" (unless current question is question 10 - in this case the button text changes to "End Round").
 b. The timer stops when "Check Answer" is triggered.
-c. Each time a question is answered the appropriate feedback is given to the user - red background on the input field and "X" icon for an incorrect answer, green background to the input field and a tick symbol icon for a correct answer.  
+c. Each time an anagram question is answered the appropriate feedback is given to the user - red background on the input field and "X" icon for an incorrect answer, green background to the input field and a tick symbol icon for a correct answer.  
 d. The total number of correct answers in the bottom right of the Play Game screen also increments if the answer is correct.  
 e. The anagram question on screen changes to show the answer.  
 When the "Continue" button is clicked verify :
@@ -388,61 +448,9 @@
 </t>
   </si>
   <si>
-    <t>Play Game - End Round</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same results as for T18.  Also - 
-Verify that the "Check Answer" button changes to "End Round" when clicked for the last question in the round (question 10).
-When the "End Round" button is click verify :
-a. User is brought to the "End of Round" screen.
-b. Username and user icon is visible on top right of screen.
-c. "&lt;&lt;" is visible on top left of screen.
-d. Text feedback message is visible on screen.
-e. Score of correct answers is visible on screen.
-f. "Play Again" and "End Game" buttons are visible and clickable on screen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same expected results as for T11.  Also - 
-When the timer runs out, verify that the site acts as though "Check Answer" has been clicked :
-a. The appropriate feedback is given to the user - red background on the input field and "X" icon for an incorrect answer, green background to the input field and a tick symbol icon for a correct answer.  
-b. The total number of correct answers in the bottom right of the Play Game screen also increments if the answer is correct.  
-c. The anagram question on screen changes to show the answer. 
-d. The "Check Answer" changes to read "Continue" to allow the user to review the feedback.  
-e. After "Check Answer" is triggered on the 10th question the button changes to read "End Round" instead of "Continue".  </t>
-  </si>
-  <si>
-    <t>End of Round - go back</t>
-  </si>
-  <si>
-    <t>End of Round - Play Again</t>
-  </si>
-  <si>
-    <t>End of Round - End Game</t>
-  </si>
-  <si>
-    <t>Repeat the steps in T20.  Click on the "End Game" button.</t>
-  </si>
-  <si>
-    <t>Same results as for T19.
-When the "End Game" button is clicked verify :
-a. User is returned to the Login screen.  
-b. On the Login screen  the username no longer appears in the top right, just the user icon is visible in this position. 
-c. "&lt;&lt;" is not visible in top left of screen. 
-d. The input field is empty.  
-e. The username validation message is not visible.  
-f. Welcome message and Game title are visible. (Animation does not re-run).</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F3, F4, F2</t>
-  </si>
-  <si>
-    <t>F3, F4, F5, F6, F7, F8, F9, F10, F11, F2</t>
+    <t>1. Repeat the steps in T11.  
+2. Complete all the anagrams in the round with a mixture of right and wrong answers. Interchange between using the Enter key and clicking on Check Answer button to submit answers. 
+3. At the end of the round click on the End Round button.</t>
   </si>
   <si>
     <t xml:space="preserve">Verify the following sequence of events occurs :
@@ -457,7 +465,7 @@
 b. "&lt;&lt;" appears on the top left of the screen.
 c. The title of the selected topic appears on the top of the Play Game screen.  
 d. The timer is running.  Verify that the timer stops when "Check Answer" is triggered.
-e. Each time a question is answered the appropriate feedback is given to the user - red background on the input field and "X" icon for an incorrect answer, green background on the input field and a tick symbol icon for a correct answer.  
+e. Each time an anagram is answered the appropriate feedback is given to the user - red background on the input field and "X" icon for an incorrect answer, green background on the input field and a tick symbol icon for a correct answer.  
 f. The total number of correct answers in the bottom right of the screen  increments if the answer is correct.  
 g. The anagram question on screen changes to show the answer.  
 h. The "Check Answer" button changes to read "Continue" to allow the user to review the feedback.
@@ -480,22 +488,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">F3, F4, F5, F2 </t>
-  </si>
-  <si>
-    <t>F3, F4, F5, F6, F7, F8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F3, F4, F5, F6, F7, F8, F9, F10  </t>
-  </si>
-  <si>
-    <t>F3, F4, F5, F6. F7, F8, F9, F10, F2</t>
-  </si>
-  <si>
-    <t>F3, F4, F5, F6. F7, F8, F9, F10, F11, F2</t>
-  </si>
-  <si>
-    <t>F1, F2, F3, F4, F5, F6, F7, F8, F9, F10, F11</t>
+    <t xml:space="preserve">Same results as for T18.  Also - 
+Verify that the "Check Answer" button changes to "End Round" when clicked for the last anagram in the round (anagram 10).
+When the "End Round" button is click verify :
+a. User is brought to the "End of Round" screen.
+b. Username and user icon is visible on top right of screen.
+c. "&lt;&lt;" is visible on top left of screen.
+d. Text feedback message is visible on screen.
+e. Score of correct answers is visible on screen.
+f. "Play Again" and "End Game" buttons are visible and clickable on screen. </t>
   </si>
 </sst>
 </file>
@@ -698,6 +699,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,21 +734,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1050,18 +1051,18 @@
   <sheetData>
     <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
@@ -1097,7 +1098,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1117,7 +1118,7 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1135,7 +1136,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1153,7 +1154,7 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1171,7 +1172,7 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1189,7 +1190,7 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1207,7 +1208,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1225,7 +1226,7 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1245,7 +1246,7 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1263,7 +1264,7 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1281,7 +1282,7 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1312,499 +1313,499 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="4.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="114.42578125" style="18" customWidth="1"/>
-    <col min="6" max="7" width="8.28515625" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="4.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="114.42578125" style="11" customWidth="1"/>
+    <col min="6" max="7" width="8.28515625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="17" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="2:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="20" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:7" s="13" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="13" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="13" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="F8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="13" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="13" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="13" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="20" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="19" t="s">
+    <row r="13" spans="2:7" s="13" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="20" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="19" t="s">
+    <row r="14" spans="2:7" s="13" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="19" t="s">
+    <row r="15" spans="2:7" s="13" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="19" t="s">
+    <row r="16" spans="2:7" s="13" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="20" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="19" t="s">
+    <row r="17" spans="2:7" s="13" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="20" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="19" t="s">
+    <row r="18" spans="2:7" s="13" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="13" customFormat="1" ht="292.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="20" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="19" t="s">
+    <row r="20" spans="2:7" s="13" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="13" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="13" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="20" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="20" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" s="20" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="20" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" s="20" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" s="20" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" s="20" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="20" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" s="20" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="20" customFormat="1" ht="292.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="20" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B22" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="20" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" s="20" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/matrix 1.xlsx
+++ b/documentation/matrix 1.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -96,13 +95,6 @@
   </si>
   <si>
     <t>UX - Responsiveness</t>
-  </si>
-  <si>
-    <t>Repeat all above tests for desktop, tablet and smartphone screens sizes.  
-a. Laptop 1920 x 1080
-b. Tablet 768 x 1024 
-c. Larger tablet 1024 x 1366
-d. Smartphone 360 x 640</t>
   </si>
   <si>
     <t>F11 - End of Round screen</t>
@@ -497,6 +489,15 @@
 d. Text feedback message is visible on screen.
 e. Score of correct answers is visible on screen.
 f. "Play Again" and "End Game" buttons are visible and clickable on screen. </t>
+  </si>
+  <si>
+    <t>Repeat all above tests for desktop, tablet and smartphone screens sizes.  
+a. Laptop 1920 x 1080
+b. Tablet 768 x 1024 
+c. Larger tablet 1024 x 1366
+d. Smartphone 360 x 640
+e. iMac Pro 5120 x 2880
+f. 16" MacBook Pro 3072 x 1920</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
@@ -1120,7 +1121,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1138,7 +1139,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -1156,7 +1157,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1174,7 +1175,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1192,7 +1193,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1210,7 +1211,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1228,7 +1229,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1248,7 +1249,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1266,7 +1267,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1284,7 +1285,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1313,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1333,7 +1334,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
@@ -1353,19 +1354,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1373,19 +1374,19 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="F3" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:7" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1393,19 +1394,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,19 +1414,19 @@
         <v>12</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1433,19 +1434,19 @@
         <v>13</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="13" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -1453,19 +1454,19 @@
         <v>14</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="13" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
@@ -1473,19 +1474,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="F8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="13" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1493,19 +1494,19 @@
         <v>16</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:7" s="13" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -1513,19 +1514,19 @@
         <v>17</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="F10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:7" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1533,19 +1534,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="13" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
@@ -1553,19 +1554,19 @@
         <v>19</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="F12" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:7" s="13" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
@@ -1573,19 +1574,19 @@
         <v>20</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:7" s="13" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
@@ -1593,19 +1594,19 @@
         <v>21</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="F14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:7" s="13" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1613,19 +1614,19 @@
         <v>22</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="F15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="13" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1633,170 +1634,170 @@
         <v>23</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="F16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:7" s="13" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:7" s="13" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:7" s="13" customFormat="1" ht="292.5" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="F19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:7" s="13" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="B21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="F21" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:7" s="13" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="13" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" s="13" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>8</v>
@@ -1805,7 +1806,7 @@
         <v>24</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
